--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="137">
   <si>
     <t>Property</t>
   </si>
@@ -51,27 +51,15 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T10:04:16+02:00</t>
+    <t>2023-01-24T07:53:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
     <t>Jurisdiction</t>
   </si>
   <si>
@@ -93,6 +81,9 @@
     <t>Case Sensitive</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Value Set (all codes)</t>
   </si>
   <si>
@@ -117,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>57</t>
+    <t>50</t>
   </si>
   <si>
     <t>Level</t>
@@ -135,346 +126,304 @@
     <t>1</t>
   </si>
   <si>
-    <t>TEMPCODE_1</t>
+    <t>tmp-prep-x081-2</t>
+  </si>
+  <si>
+    <t>Preparing medication_Appendix 81</t>
+  </si>
+  <si>
+    <t>tmp-prep-ient-8</t>
+  </si>
+  <si>
+    <t>Preparation and medication administration in the psychiatric patient</t>
+  </si>
+  <si>
+    <t>tmp-prep-rsed-5</t>
+  </si>
+  <si>
+    <t>Preparing medication_not reimbursed</t>
+  </si>
+  <si>
+    <t>tmp-diab-tion-8</t>
+  </si>
+  <si>
+    <t>Diabetes education</t>
+  </si>
+  <si>
+    <t>tmp-samp-tion-7</t>
+  </si>
+  <si>
+    <t>Sample collection</t>
+  </si>
+  <si>
+    <t>tmp-glyc-eter-2</t>
+  </si>
+  <si>
+    <t>Glycemic control with glucometer</t>
+  </si>
+  <si>
+    <t>tmp-bloo-ting-2</t>
+  </si>
+  <si>
+    <t>Bloodletting</t>
+  </si>
+  <si>
+    <t>tmp-drug-tion-9</t>
   </si>
   <si>
     <t>Drug administration</t>
   </si>
   <si>
-    <t>TEMPCODE_2</t>
-  </si>
-  <si>
-    <t>Compression therapy: application of short stretch bandage</t>
-  </si>
-  <si>
-    <t>TEMPCODE_3</t>
-  </si>
-  <si>
-    <t>Compression therapy: application of bandage long stretch</t>
-  </si>
-  <si>
-    <t>TEMPCODE_4</t>
-  </si>
-  <si>
-    <t>Putting on and/or taking off compression stockings</t>
-  </si>
-  <si>
-    <t>TEMPCODE_5</t>
-  </si>
-  <si>
-    <t>Wound care made easy: apply a bandage</t>
-  </si>
-  <si>
-    <t>TEMPCODE_6</t>
-  </si>
-  <si>
-    <t>Dry aseptic dressing single</t>
-  </si>
-  <si>
-    <t>TEMPCODE_7</t>
-  </si>
-  <si>
-    <t>Dry aseptic dressing multiple</t>
-  </si>
-  <si>
-    <t>TEMPCODE_8</t>
-  </si>
-  <si>
-    <t>remove stitches</t>
-  </si>
-  <si>
-    <t>TEMPCODE_9</t>
-  </si>
-  <si>
-    <t>debride bedsore</t>
-  </si>
-  <si>
-    <t>TEMPCODE_10</t>
-  </si>
-  <si>
-    <t>Wound care complex</t>
-  </si>
-  <si>
-    <t>TEMPCODE_11</t>
-  </si>
-  <si>
-    <t>replace heparin lock</t>
-  </si>
-  <si>
-    <t>TEMPCODE_12</t>
-  </si>
-  <si>
-    <t>Bladder probe</t>
-  </si>
-  <si>
-    <t>TEMPCODE_13</t>
-  </si>
-  <si>
-    <t>Bladder instillation</t>
-  </si>
-  <si>
-    <t>TEMPCODE_14</t>
-  </si>
-  <si>
-    <t>bladder irrigation</t>
-  </si>
-  <si>
-    <t>TEMPCODE_15</t>
-  </si>
-  <si>
-    <t>Aspetic vulva concerns</t>
-  </si>
-  <si>
-    <t>TEMPCODE_16</t>
-  </si>
-  <si>
-    <t>Vaginal irrigation</t>
-  </si>
-  <si>
-    <t>TEMPCODE_17</t>
+    <t>tmp-hygi-care-3</t>
+  </si>
+  <si>
+    <t>Hygienic care</t>
+  </si>
+  <si>
+    <t>tmp-chro-ysis-1</t>
+  </si>
+  <si>
+    <t>Chronic home dialysis</t>
+  </si>
+  <si>
+    <t>tmp-cont-ters-8</t>
+  </si>
+  <si>
+    <t>Control parameters</t>
+  </si>
+  <si>
+    <t>tmp-aspi-ways-8</t>
   </si>
   <si>
     <t>Aspiration airways</t>
   </si>
   <si>
-    <t>TEMPCODE_18</t>
-  </si>
-  <si>
-    <t>Remove fecalomas</t>
-  </si>
-  <si>
-    <t>TEMPCODE_19</t>
-  </si>
-  <si>
-    <t>Intestinal avement</t>
-  </si>
-  <si>
-    <t>TEMPCODE_20</t>
-  </si>
-  <si>
-    <t>Gastrointestinal tubing</t>
-  </si>
-  <si>
-    <t>TEMPCODE_21</t>
-  </si>
-  <si>
-    <t>Gastrointestinal drainage</t>
-  </si>
-  <si>
-    <t>TEMPCODE_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> colonic irrigation</t>
-  </si>
-  <si>
-    <t>TEMPCODE_23</t>
-  </si>
-  <si>
-    <t>administration of enteral nutrition</t>
-  </si>
-  <si>
-    <t>TEMPCODE_24</t>
-  </si>
-  <si>
-    <t>Preparing medication (Weekly preparation of the medication per os)</t>
-  </si>
-  <si>
-    <t>TEMPCODE_25</t>
-  </si>
-  <si>
-    <t>install perfusion</t>
-  </si>
-  <si>
-    <t>TEMPCODE_26</t>
-  </si>
-  <si>
-    <t>monitoring perfusion</t>
-  </si>
-  <si>
-    <t>TEMPCODE_27</t>
-  </si>
-  <si>
-    <t>administration of parenteral nutrition</t>
-  </si>
-  <si>
-    <t>TEMPCODE_28</t>
-  </si>
-  <si>
-    <t>monitoring parenteral nutrition</t>
-  </si>
-  <si>
-    <t>TEMPCODE_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> remove indwelling catheter type Hickman intravenously</t>
-  </si>
-  <si>
-    <t>TEMPCODE_30</t>
-  </si>
-  <si>
-    <t>remove port catheter material</t>
-  </si>
-  <si>
-    <t>TEMPCODE_31</t>
-  </si>
-  <si>
-    <t>remove indwelling catheter type PICK intravenously</t>
-  </si>
-  <si>
-    <t>TEMPCODE_32</t>
-  </si>
-  <si>
-    <t>replace probe with balloon suprapubic</t>
-  </si>
-  <si>
-    <t>TEMPCODE_33</t>
-  </si>
-  <si>
-    <t>replace tube with balloon gastrostomy</t>
-  </si>
-  <si>
-    <t>TEMPCODE_34</t>
-  </si>
-  <si>
-    <t>supervision and follow-up fee use of pumping systems to administer chronic analgesia via epidural or intrathecal catheter</t>
-  </si>
-  <si>
-    <t>TEMPCODE_35</t>
-  </si>
-  <si>
-    <t>care of epidural catheter: adjust flow of medication</t>
-  </si>
-  <si>
-    <t>TEMPCODE_36</t>
-  </si>
-  <si>
-    <t>epidural catheter care: restart after an alarm</t>
-  </si>
-  <si>
-    <t>TEMPCODE_37</t>
-  </si>
-  <si>
-    <t>caring for epidural catheter: changing the medication reservoir</t>
-  </si>
-  <si>
-    <t>TEMPCODE_38</t>
-  </si>
-  <si>
-    <t>epidural catheter care: extra check</t>
-  </si>
-  <si>
-    <t>TEMPCODE_39</t>
-  </si>
-  <si>
-    <t>epidural catheter care: maintenance dose change</t>
-  </si>
-  <si>
-    <t>TEMPCODE_40</t>
-  </si>
-  <si>
-    <t>care of intrathecal catheter: adjust flow of medication</t>
-  </si>
-  <si>
-    <t>TEMPCODE_41</t>
-  </si>
-  <si>
-    <t>care of intrathecal catheter: restart after an alarm</t>
-  </si>
-  <si>
-    <t>TEMPCODE_42</t>
-  </si>
-  <si>
-    <t>caring for intrathecal catheter: changing the medication reservoir</t>
-  </si>
-  <si>
-    <t>TEMPCODE_43</t>
-  </si>
-  <si>
-    <t>care of intrathecal catheter: extra check</t>
-  </si>
-  <si>
-    <t>TEMPCODE_44</t>
-  </si>
-  <si>
-    <t>intrathecal catheter care: change to maintenance dose</t>
-  </si>
-  <si>
-    <t>TEMPCODE_45</t>
-  </si>
-  <si>
-    <t>preparation and administration of medication in chronic psychiatric patients</t>
-  </si>
-  <si>
-    <t>TEMPCODE_46</t>
-  </si>
-  <si>
-    <t>Education Diabetes theme self care</t>
-  </si>
-  <si>
-    <t>TEMPCODE_47</t>
-  </si>
-  <si>
-    <t>Education Diabetes theme insight</t>
-  </si>
-  <si>
-    <t>TEMPCODE_48</t>
-  </si>
-  <si>
-    <t>Guidance of diabetes patient who does not proceed to self-care.</t>
-  </si>
-  <si>
-    <t>TEMPCODE_49</t>
-  </si>
-  <si>
-    <t>Diabetes education in the context of type 2 diabetes care: individual session</t>
-  </si>
-  <si>
-    <t>TEMPCODE_50</t>
-  </si>
-  <si>
-    <t>Diabetes education in the context of type 2 diabetes care: group session</t>
-  </si>
-  <si>
-    <t>TEMPCODE_51</t>
-  </si>
-  <si>
-    <t>Other regulations (outside nomenclature)</t>
-  </si>
-  <si>
-    <t>TEMPCODE_52</t>
-  </si>
-  <si>
-    <t>Blood test</t>
-  </si>
-  <si>
-    <t>TEMPCODE_53</t>
-  </si>
-  <si>
-    <t>Gluco test with glucometer</t>
-  </si>
-  <si>
-    <t>TEMPCODE_54</t>
-  </si>
-  <si>
-    <t>Parameters (weighing, blood pressure)</t>
-  </si>
-  <si>
-    <t>TEMPCODE_55</t>
-  </si>
-  <si>
-    <t>Lab tests (e.g. urine sample, sputum sample, faeces sample, covid test)</t>
-  </si>
-  <si>
-    <t>TEMPCODE_56</t>
-  </si>
-  <si>
-    <t>Preparing medication for patients outside Appendix 81, psychiatric patient.</t>
-  </si>
-  <si>
-    <t>TEMPCODE_57</t>
-  </si>
-  <si>
-    <t>Eye drops after 30 days of surgery</t>
+    <t>tmp-use0-tion-9</t>
+  </si>
+  <si>
+    <t>Use and supervision of home ventilation</t>
+  </si>
+  <si>
+    <t>tmp-oxyg-tion-1</t>
+  </si>
+  <si>
+    <t>Oxygen administration</t>
+  </si>
+  <si>
+    <t>tmp-repl-tomy-0</t>
+  </si>
+  <si>
+    <t>replace tracheostomy</t>
+  </si>
+  <si>
+    <t>tmp-clea-tomy-8</t>
+  </si>
+  <si>
+    <t>clean tracheostomy</t>
+  </si>
+  <si>
+    <t>tmp-remo-omas-0</t>
+  </si>
+  <si>
+    <t>removal of fecalomas</t>
+  </si>
+  <si>
+    <t>tmp-colo-tion-8</t>
+  </si>
+  <si>
+    <t>colonic irrigation</t>
+  </si>
+  <si>
+    <t>tmp-enem-nema-5</t>
+  </si>
+  <si>
+    <t>enema</t>
+  </si>
+  <si>
+    <t>tmp-gast-ment-0</t>
+  </si>
+  <si>
+    <t>gastrointestinal tubing and drainage: gastric tube placement</t>
+  </si>
+  <si>
+    <t>tmp-gast-tube-7</t>
+  </si>
+  <si>
+    <t>gastrointestinal tubing and drainage: remove gastric tube</t>
+  </si>
+  <si>
+    <t>tmp-gast-tube-1</t>
+  </si>
+  <si>
+    <t>gastrointestinal tubing and drainage: monitoring gastric tube</t>
+  </si>
+  <si>
+    <t>tmp-gast-sing-5</t>
+  </si>
+  <si>
+    <t>gastrointestinal tubing and drainage: rinsing</t>
+  </si>
+  <si>
+    <t>tmp-perc-move-7</t>
+  </si>
+  <si>
+    <t>percutaneous gastrostomy tube: remove</t>
+  </si>
+  <si>
+    <t>tmp-perc-tion-6</t>
+  </si>
+  <si>
+    <t>percutaneous gastrostomy tube: replacement after fistula formation</t>
+  </si>
+  <si>
+    <t>tmp-perc-sion-2</t>
+  </si>
+  <si>
+    <t>percutaneous gastrostomy tube: supervision</t>
+  </si>
+  <si>
+    <t>tmp-perc-inse-2</t>
+  </si>
+  <si>
+    <t>percutal gastrostomy tube: rinse</t>
+  </si>
+  <si>
+    <t>tmp-vagi-inse-3</t>
+  </si>
+  <si>
+    <t>vaginal rinse</t>
+  </si>
+  <si>
+    <t>tmp-asep-care-9</t>
+  </si>
+  <si>
+    <t>aseptic vulvar care</t>
+  </si>
+  <si>
+    <t>tmp-inte-tion-6</t>
+  </si>
+  <si>
+    <t>intermittent bladder catheterization</t>
+  </si>
+  <si>
+    <t>tmp-remo-tube-9</t>
+  </si>
+  <si>
+    <t>remove bladder tube</t>
+  </si>
+  <si>
+    <t>tmp-repl-tube-0</t>
+  </si>
+  <si>
+    <t>replace bladder tube</t>
+  </si>
+  <si>
+    <t>tmp-inse-tube-9</t>
+  </si>
+  <si>
+    <t>insert bladder tube</t>
+  </si>
+  <si>
+    <t>tmp-blad-sion-4</t>
+  </si>
+  <si>
+    <t>bladder tube supervision</t>
+  </si>
+  <si>
+    <t>tmp-blad-ance-2</t>
+  </si>
+  <si>
+    <t>bladder instillation performance</t>
+  </si>
+  <si>
+    <t>tmp-blad-ring-1</t>
+  </si>
+  <si>
+    <t>bladder instillation monitoring</t>
+  </si>
+  <si>
+    <t>tmp-supr-oint-9</t>
+  </si>
+  <si>
+    <t>suprapubic bladder care insertion point</t>
+  </si>
+  <si>
+    <t>tmp-supr-ring-9</t>
+  </si>
+  <si>
+    <t>suprapubic bladder monitoring</t>
+  </si>
+  <si>
+    <t>tmp-supr-ment-5</t>
+  </si>
+  <si>
+    <t>suprapubic bladder tube replacement</t>
+  </si>
+  <si>
+    <t>tmp-supr-oval-1</t>
+  </si>
+  <si>
+    <t>suprapubic bladder tube removal</t>
+  </si>
+  <si>
+    <t>tmp-cond-care-0</t>
+  </si>
+  <si>
+    <t>condom catheter care</t>
+  </si>
+  <si>
+    <t>tmp-plac-eter-6</t>
+  </si>
+  <si>
+    <t>Placing catheter</t>
+  </si>
+  <si>
+    <t>tmp-moni-eter-9</t>
+  </si>
+  <si>
+    <t>Monitoring catheter</t>
+  </si>
+  <si>
+    <t>tmp-repl-eter-6</t>
+  </si>
+  <si>
+    <t>Replace catheter</t>
+  </si>
+  <si>
+    <t>tmp-remo-eter-5</t>
+  </si>
+  <si>
+    <t>Remove catheter</t>
+  </si>
+  <si>
+    <t>tmp-flus-eter-7</t>
+  </si>
+  <si>
+    <t>Flushing catheter</t>
+  </si>
+  <si>
+    <t>tmp-dres-eter-4</t>
+  </si>
+  <si>
+    <t>Dressing change catheter</t>
+  </si>
+  <si>
+    <t>tmp-woun-care-0</t>
+  </si>
+  <si>
+    <t>wound care</t>
+  </si>
+  <si>
+    <t>tmp-comp-dage-3</t>
+  </si>
+  <si>
+    <t>compression therapy: application of bandage</t>
+  </si>
+  <si>
+    <t>tmp-comp-ings-8</t>
+  </si>
+  <si>
+    <t>compression therapy: putting on and taking off compression stockings</t>
   </si>
 </sst>
 </file>
@@ -608,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -670,32 +619,28 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -710,55 +655,53 @@
       <c r="A12" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>20</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>12</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
@@ -772,20 +715,6 @@
       </c>
       <c r="B21" t="s" s="2">
         <v>31</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +724,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -803,701 +732,617 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>35</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="D58" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T07:53:27+00:00</t>
+    <t>2023-01-24T08:49:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T08:49:19+00:00</t>
+    <t>2023-02-02T07:53:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:12:07+00:00</t>
+    <t>2023-02-10T09:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:22:00+00:00</t>
+    <t>2023-02-10T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:27+00:00</t>
+    <t>2023-02-21T10:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:31+00:00</t>
+    <t>2023-02-21T11:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:28+00:00</t>
+    <t>2023-02-21T11:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:51+00:00</t>
+    <t>2023-02-22T15:46:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:46:17+00:00</t>
+    <t>2023-03-10T07:39:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T07:39:36+00:00</t>
+    <t>2023-03-17T13:10:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:10:55+00:00</t>
+    <t>2023-03-17T13:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:11:04+00:00</t>
+    <t>2023-04-19T13:59:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T13:59:03+00:00</t>
+    <t>2023-04-20T18:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:37:34+00:00</t>
+    <t>2023-04-20T18:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:38:40+00:00</t>
+    <t>2023-04-20T18:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:40:27+00:00</t>
+    <t>2023-04-20T19:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:18:44+00:00</t>
+    <t>2023-04-20T19:23:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:23:54+00:00</t>
+    <t>2023-04-20T19:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:43:11+00:00</t>
+    <t>2023-04-21T10:15:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T10:15:27+00:00</t>
+    <t>2023-04-21T14:28:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>11</t>
+    <t>19</t>
   </si>
   <si>
     <t>Level</t>
@@ -193,6 +193,54 @@
   </si>
   <si>
     <t>Dressing change catheter</t>
+  </si>
+  <si>
+    <t>tmp-care-tube-6</t>
+  </si>
+  <si>
+    <t>care for tracheostomy tube</t>
+  </si>
+  <si>
+    <t>tmp-care-tube-1</t>
+  </si>
+  <si>
+    <t>care for gastric tube</t>
+  </si>
+  <si>
+    <t>tmp-gast-care-1</t>
+  </si>
+  <si>
+    <t>gastrostomy tube care</t>
+  </si>
+  <si>
+    <t>tmp-care-eter-9</t>
+  </si>
+  <si>
+    <t>care for a catheter</t>
+  </si>
+  <si>
+    <t>tmp-repl-tube-5</t>
+  </si>
+  <si>
+    <t>replace tracheostomy tube</t>
+  </si>
+  <si>
+    <t>tmp-clea-tube-3</t>
+  </si>
+  <si>
+    <t>clean tracheostomy tube</t>
+  </si>
+  <si>
+    <t>tmp-spec-act0-5</t>
+  </si>
+  <si>
+    <t>Specific technical provision (B2 act - C act)</t>
+  </si>
+  <si>
+    <t>tmp-plac-edle-0</t>
+  </si>
+  <si>
+    <t>Place/replace needle</t>
   </si>
 </sst>
 </file>
@@ -495,7 +543,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -647,6 +695,102 @@
       </c>
       <c r="D12" s="2"/>
     </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:28:50+00:00</t>
+    <t>2023-04-21T14:29:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:29:36+00:00</t>
+    <t>2023-04-21T14:42:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:15+00:00</t>
+    <t>2023-04-21T14:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:33+00:00</t>
+    <t>2023-04-21T14:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:55:14+00:00</t>
+    <t>2023-04-21T14:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:56:41+00:00</t>
+    <t>2023-04-25T13:57:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T13:57:38+00:00</t>
+    <t>2023-04-28T07:14:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T07:14:58+00:00</t>
+    <t>2023-04-28T10:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:20:31+00:00</t>
+    <t>2023-04-28T10:21:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:21:40+00:00</t>
+    <t>2023-05-15T08:38:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T08:38:34+00:00</t>
+    <t>2023-05-15T10:07:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:07:26+00:00</t>
+    <t>2023-05-15T10:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:09:56+00:00</t>
+    <t>2023-05-16T06:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-16T06:48:43+00:00</t>
+    <t>2023-06-06T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:33:19+00:00</t>
+    <t>2023-06-06T07:37:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:37:43+00:00</t>
+    <t>2023-06-06T07:38:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:38:08+00:00</t>
+    <t>2023-06-06T07:41:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:41:53+00:00</t>
+    <t>2023-06-06T07:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:45:21+00:00</t>
+    <t>2023-06-08T08:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:30:17+00:00</t>
+    <t>2023-06-08T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:31:26+00:00</t>
+    <t>2023-06-14T06:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -362,10 +362,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T06:47:29+00:00</t>
+    <t>2023-08-28T15:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:26:36+00:00</t>
+    <t>2023-08-28T15:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:28:15+00:00</t>
+    <t>2023-09-01T06:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T06:47:50+00:00</t>
+    <t>2023-09-05T14:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T14:28:58+00:00</t>
+    <t>2023-09-29T14:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:04:57+00:00</t>
+    <t>2023-09-29T14:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:06:01+00:00</t>
+    <t>2023-09-29T14:14:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:14:49+00:00</t>
+    <t>2023-09-29T14:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:15:09+00:00</t>
+    <t>2024-03-15T09:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:11:04+00:00</t>
+    <t>2024-03-15T09:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:12:22+00:00</t>
+    <t>2024-09-24T14:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>Level</t>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>tmp-prep-x081-2</t>
+  </si>
+  <si>
+    <t>Preparing medication_Appendix 81</t>
   </si>
   <si>
     <t>tmp-prep-rsed-5</t>
@@ -543,7 +549,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -791,6 +797,18 @@
       </c>
       <c r="D20" s="2"/>
     </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:40:03+00:00</t>
+    <t>2024-09-24T14:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-temp-requested-service.xlsx
+++ b/CodeSystem-be-cs-temp-requested-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:41:18+00:00</t>
+    <t>2024-09-24T14:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
